--- a/PO_test/generated_test_files/TestPO_04_케이에스파워텍_1_3items.xlsx
+++ b/PO_test/generated_test_files/TestPO_04_케이에스파워텍_1_3items.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="갑지" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="을지" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="갑지" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="을지" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,87 +436,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>발주일자</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>납기일자</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>거래처명</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>현장명</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>발주일</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>납기일</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>발주번호</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>품목</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>거래처 이메일</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>납품처명</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>납품처 이메일</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>프로젝트명</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>대분류</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>중분류</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>소분류</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>품목명</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>규격</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>단위</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>단가</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>부가세</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>대분류</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>중분류</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>소분류</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>총금액</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
@@ -525,221 +520,215 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>케이에스파워텍</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>케이에스파워텍@example.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>힐스테이트 도곡동1차</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PO-20250819-케이에-732</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>delivery@example.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>힐스테이트 도곡동1차</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2. 부자재비</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3) 기타</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>스텐망 1083*2145</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>KS규격-1</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2. 부자재비</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3) 기타</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>케이에스파워텍</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>케이에스파워텍@example.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>힐스테이트 도곡동1차</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PO-20250819-케이에-119</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>delivery@example.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>힐스테이트 도곡동1차</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2. 부자재비</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3) 기타</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>스텐망 1168*343</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>KS규격-2</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>29000</v>
       </c>
-      <c r="K3" t="n">
-        <v>232000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>23200</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>255200</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2. 부자재비</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3) 기타</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>케이에스파워텍</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>케이에스파워텍@example.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>힐스테이트 도곡동1차</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PO-20250819-케이에-793</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>delivery@example.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>힐스테이트 도곡동1차</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5. 운반비</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>일반자재</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>3월 운반비</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>KS규격-3</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5. 운반비</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>일반자재</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -838,7 +827,6 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -871,7 +859,6 @@
       <c r="H3" t="n">
         <v>255200</v>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -904,7 +891,6 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1003,7 +989,6 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1036,7 +1021,6 @@
       <c r="H3" t="n">
         <v>255200</v>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1069,7 +1053,6 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
